--- a/Standard_Library_TestCase_PartUtil .xlsx
+++ b/Standard_Library_TestCase_PartUtil .xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="284">
   <si>
     <t>Test Environment</t>
   </si>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>LifeCycleTemplate</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>Workable</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -306,14 +302,6 @@
   </si>
   <si>
     <t>isModifiable(WTPart part)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>INWORK</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLifeCycleTemplate(WTPart part)</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
@@ -976,44 +964,8 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(getLifeCycleState(getPartByNumber("0000000022")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getLifeCycleState(getPartByNumber("asd")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getLifeCycleState(null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLifeCycleState(WTPart part)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1:input the invalidate "part" is exist in windchill </t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>State</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifecycleTemplate</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getLifeCycleTemplate(getPartByNumber("0000000022")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getLifeCycleTemplate(getPartByNumber("asd")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getLifeCycleTemplate(null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>get part workable</t>
@@ -3076,10 +3028,10 @@
     <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3101,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3111,10 +3063,10 @@
     <row r="12" spans="1:8" ht="13.5" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3124,10 +3076,10 @@
     <row r="13" spans="1:8" ht="13.5" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3148,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3276,10 +3228,10 @@
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H7" s="34" t="b">
         <v>1</v>
@@ -3287,7 +3239,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="36"/>
       <c r="K7" s="37" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="54">
@@ -3296,14 +3248,14 @@
         <v>14</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H8" s="34" t="b">
         <v>0</v>
@@ -3311,21 +3263,21 @@
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="54">
       <c r="B9" s="60"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="33" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H9" s="34" t="b">
         <v>0</v>
@@ -3333,7 +3285,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
       <c r="K9" s="37" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54">
@@ -3342,14 +3294,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H10" s="34" t="b">
         <v>0</v>
@@ -3357,7 +3309,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="54">
@@ -3365,91 +3317,91 @@
         <v>2</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="80"/>
       <c r="K11" s="36" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54">
       <c r="B12" s="60"/>
       <c r="C12" s="73"/>
       <c r="D12" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="33" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I12" s="78"/>
       <c r="J12" s="80"/>
       <c r="K12" s="79" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="54">
       <c r="B13" s="60"/>
       <c r="C13" s="73"/>
       <c r="D13" s="30" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="33" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I13" s="78"/>
       <c r="J13" s="80"/>
       <c r="K13" s="79" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54">
       <c r="B14" s="60"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="53"/>
       <c r="K14" s="79" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54">
@@ -3457,91 +3409,91 @@
         <v>3</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="63"/>
       <c r="F15" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I15" s="67"/>
       <c r="J15" s="53"/>
       <c r="K15" s="79" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="54">
       <c r="B16" s="60"/>
       <c r="C16" s="62"/>
       <c r="D16" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="33" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I16" s="67"/>
       <c r="J16" s="53"/>
       <c r="K16" s="79" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="54">
       <c r="B17" s="60"/>
       <c r="C17" s="62"/>
       <c r="D17" s="30" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="33" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I17" s="67"/>
       <c r="J17" s="53"/>
       <c r="K17" s="79" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="54">
       <c r="B18" s="60"/>
       <c r="C18" s="62"/>
       <c r="D18" s="30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E18" s="63"/>
       <c r="F18" s="33" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I18" s="67"/>
       <c r="J18" s="53"/>
       <c r="K18" s="79" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="144.75" thickBot="1">
@@ -3549,25 +3501,25 @@
         <v>4</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D19" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
       <c r="K19" s="69" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="144">
@@ -3578,194 +3530,194 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="50"/>
       <c r="K20" s="51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="144">
       <c r="B21" s="31"/>
       <c r="C21" s="38"/>
       <c r="D21" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="50"/>
       <c r="K21" s="51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="180">
       <c r="B22" s="31"/>
       <c r="C22" s="38"/>
       <c r="D22" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="50"/>
       <c r="K22" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="144">
       <c r="B23" s="31"/>
       <c r="C23" s="38"/>
       <c r="D23" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="50"/>
       <c r="K23" s="51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="144">
       <c r="B24" s="31"/>
       <c r="C24" s="38"/>
       <c r="D24" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="50"/>
       <c r="K24" s="51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="162">
       <c r="B25" s="31"/>
       <c r="C25" s="38"/>
       <c r="D25" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="50"/>
       <c r="K25" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="198">
       <c r="B26" s="31"/>
       <c r="C26" s="38"/>
       <c r="D26" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="50"/>
       <c r="K26" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="144">
       <c r="B27" s="31"/>
       <c r="C27" s="38"/>
       <c r="D27" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="50"/>
       <c r="K27" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="144">
       <c r="B28" s="31"/>
       <c r="C28" s="38"/>
       <c r="D28" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="50"/>
       <c r="K28" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="54">
@@ -3780,84 +3732,84 @@
       </c>
       <c r="E29" s="74"/>
       <c r="F29" s="33" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G29" s="76" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H29" s="77" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="81"/>
       <c r="K29" s="82" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="54">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="30" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E30" s="74"/>
       <c r="F30" s="33" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H30" s="77" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I30" s="78"/>
       <c r="J30" s="81"/>
       <c r="K30" s="82" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="54">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E31" s="74"/>
       <c r="F31" s="33" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H31" s="77" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I31" s="78"/>
       <c r="J31" s="81"/>
       <c r="K31" s="82" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="54">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="30" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E32" s="74"/>
       <c r="F32" s="33" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H32" s="77" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I32" s="78"/>
       <c r="J32" s="81"/>
       <c r="K32" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="72.75" thickBot="1">
@@ -3865,25 +3817,25 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="39"/>
       <c r="K33" s="40" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="54.75" thickBot="1">
@@ -3894,40 +3846,40 @@
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="39"/>
       <c r="K34" s="40" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="54.75" thickBot="1">
       <c r="B35" s="71"/>
       <c r="C35" s="38"/>
       <c r="D35" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="39"/>
       <c r="K35" s="40" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="90.75" thickBot="1">
@@ -3935,25 +3887,25 @@
         <v>7</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="39"/>
       <c r="K36" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="72">
@@ -3964,40 +3916,40 @@
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="50"/>
       <c r="K37" s="51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="54">
       <c r="B38" s="31"/>
       <c r="C38" s="38"/>
       <c r="D38" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="50"/>
       <c r="K38" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="90.75" thickBot="1">
@@ -4005,25 +3957,25 @@
         <v>8</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="39"/>
       <c r="K39" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="72">
@@ -4034,40 +3986,40 @@
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="50"/>
       <c r="K40" s="51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="54">
       <c r="B41" s="31"/>
       <c r="C41" s="38"/>
       <c r="D41" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="50"/>
       <c r="K41" s="51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="54.75" thickBot="1">
@@ -4075,25 +4027,25 @@
         <v>9</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="39"/>
       <c r="K42" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="54">
@@ -4104,209 +4056,209 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="50"/>
       <c r="K43" s="51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="54">
       <c r="B44" s="31"/>
       <c r="C44" s="38"/>
       <c r="D44" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="50"/>
       <c r="K44" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B45" s="31">
+        <v>10</v>
+      </c>
+      <c r="C45" s="38" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B45" s="71">
-        <v>10</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="33" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="39"/>
       <c r="K45" s="40" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="54">
-      <c r="B46" s="71"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="38"/>
       <c r="D46" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="33" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="50"/>
       <c r="K46" s="51" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="54">
-      <c r="B47" s="71"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="38"/>
       <c r="D47" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="E47" s="32"/>
       <c r="F47" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="50"/>
       <c r="K47" s="51" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B48" s="71">
+      <c r="B48" s="31">
         <v>11</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>209</v>
+        <v>24</v>
+      </c>
+      <c r="H48" s="41">
+        <v>2</v>
       </c>
       <c r="I48" s="35"/>
       <c r="J48" s="39"/>
       <c r="K48" s="40" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="54">
-      <c r="B49" s="71"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="38"/>
       <c r="D49" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" s="35"/>
       <c r="J49" s="50"/>
       <c r="K49" s="51" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="54">
-      <c r="B50" s="71"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="38"/>
       <c r="D50" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="E50" s="32"/>
       <c r="F50" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="50"/>
       <c r="K50" s="51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="54.75" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="144.75" thickBot="1">
       <c r="B51" s="31">
         <v>12</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I51" s="35"/>
       <c r="J51" s="39"/>
       <c r="K51" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="54">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="162">
       <c r="B52" s="31"/>
       <c r="C52" s="38"/>
       <c r="D52" s="30" t="s">
@@ -4314,231 +4266,231 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="50"/>
       <c r="K52" s="51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="162">
       <c r="B53" s="31"/>
       <c r="C53" s="38"/>
       <c r="D53" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I53" s="35"/>
       <c r="J53" s="50"/>
       <c r="K53" s="51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B54" s="31">
-        <v>13</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>140</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="162">
+      <c r="B54" s="31"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="30" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="41">
+        <v>51</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="144.75" thickBot="1">
+      <c r="B55" s="31">
+        <v>13</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>2</v>
-      </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="54">
-      <c r="B55" s="31"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I55" s="35"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="54">
+      <c r="J55" s="39"/>
+      <c r="K55" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="144">
       <c r="B56" s="31"/>
       <c r="C56" s="38"/>
       <c r="D56" s="30" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="50"/>
       <c r="K56" s="51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="144.75" thickBot="1">
-      <c r="B57" s="31">
-        <v>14</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>19</v>
-      </c>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="126">
+      <c r="B57" s="31"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="30" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>52</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I57" s="35"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="162">
-      <c r="B58" s="31"/>
-      <c r="C58" s="38"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="180.75" thickBot="1">
+      <c r="B58" s="31">
+        <v>14</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="D58" s="30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="33" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="I58" s="35"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51" t="s">
-        <v>145</v>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="162">
       <c r="B59" s="31"/>
       <c r="C59" s="38"/>
       <c r="D59" s="30" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="50"/>
       <c r="K59" s="51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="162">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="144">
       <c r="B60" s="31"/>
       <c r="C60" s="38"/>
       <c r="D60" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I60" s="35"/>
       <c r="J60" s="50"/>
       <c r="K60" s="51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="144.75" thickBot="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="54.75" thickBot="1">
       <c r="B61" s="31">
         <v>15</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I61" s="35"/>
       <c r="J61" s="39"/>
       <c r="K61" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="144">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="54">
       <c r="B62" s="31"/>
       <c r="C62" s="38"/>
       <c r="D62" s="30" t="s">
@@ -4546,404 +4498,400 @@
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="33" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I62" s="35"/>
       <c r="J62" s="50"/>
       <c r="K62" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="126">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="54">
       <c r="B63" s="31"/>
       <c r="C63" s="38"/>
       <c r="D63" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="33" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="I63" s="35"/>
       <c r="J63" s="50"/>
       <c r="K63" s="51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="180.75" thickBot="1">
-      <c r="B64" s="31">
-        <v>16</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>21</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="54">
+      <c r="B64" s="31"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="30" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="33" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="I64" s="35"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="162">
-      <c r="B65" s="31"/>
-      <c r="C65" s="38"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="57" thickBot="1">
+      <c r="B65" s="31">
+        <v>16</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>167</v>
+      </c>
       <c r="D65" s="30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I65" s="35"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="144">
+      <c r="J65" s="39"/>
+      <c r="K65" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="54">
       <c r="B66" s="31"/>
       <c r="C66" s="38"/>
       <c r="D66" s="30" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="33" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="I66" s="35"/>
       <c r="J66" s="50"/>
       <c r="K66" s="51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B67" s="31">
-        <v>17</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>160</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="56.25">
+      <c r="B67" s="31"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="30" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I67" s="35"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="54">
+      <c r="J67" s="50"/>
+      <c r="K67" s="51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="56.25">
       <c r="B68" s="31"/>
       <c r="C68" s="38"/>
       <c r="D68" s="30" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I68" s="35"/>
       <c r="J68" s="50"/>
       <c r="K68" s="51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="54">
-      <c r="B69" s="31"/>
-      <c r="C69" s="38"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B69" s="31">
+        <v>17</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="D69" s="30" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="33" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="I69" s="35"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="54">
+      <c r="J69" s="39"/>
+      <c r="K69" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="56.25">
       <c r="B70" s="31"/>
       <c r="C70" s="38"/>
       <c r="D70" s="30" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="33" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="I70" s="35"/>
       <c r="J70" s="50"/>
       <c r="K70" s="51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="57" thickBot="1">
-      <c r="B71" s="31">
-        <v>18</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>170</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="56.25">
+      <c r="B71" s="31"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="30" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="33" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I71" s="35"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="54">
-      <c r="B72" s="31"/>
-      <c r="C72" s="38"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B72" s="31">
+        <v>18</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>192</v>
+      </c>
       <c r="D72" s="30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="33" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>173</v>
+        <v>76</v>
+      </c>
+      <c r="H72" s="41" t="b">
+        <v>1</v>
       </c>
       <c r="I72" s="35"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="56.25">
+      <c r="J72" s="39"/>
+      <c r="K72" s="40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="54">
       <c r="B73" s="31"/>
       <c r="C73" s="38"/>
       <c r="D73" s="30" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E73" s="32"/>
       <c r="F73" s="33" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H73" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="I73" s="35"/>
       <c r="J73" s="50"/>
       <c r="K73" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="56.25">
-      <c r="B74" s="31"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="54">
+      <c r="B74" s="54"/>
       <c r="C74" s="38"/>
       <c r="D74" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="E74" s="31"/>
       <c r="F74" s="33" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H74" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="I74" s="35"/>
       <c r="J74" s="50"/>
       <c r="K74" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B75" s="31">
-        <v>19</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>26</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="54">
+      <c r="B75" s="31"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="30" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="33" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>183</v>
+        <v>76</v>
+      </c>
+      <c r="H75" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="I75" s="35"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="56.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="38"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B76" s="31">
+        <v>19</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="D76" s="30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E76" s="32"/>
       <c r="F76" s="33" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H76" s="41" t="b">
+        <v>1</v>
       </c>
       <c r="I76" s="35"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="56.25">
+      <c r="J76" s="39"/>
+      <c r="K76" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="54">
       <c r="B77" s="31"/>
       <c r="C77" s="38"/>
       <c r="D77" s="30" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="33" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H77" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="I77" s="35"/>
       <c r="J77" s="50"/>
       <c r="K77" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B78" s="31">
-        <v>20</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="54">
+      <c r="B78" s="54"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="E78" s="31"/>
       <c r="F78" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H78" s="41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="40" t="s">
-        <v>188</v>
+      <c r="J78" s="50"/>
+      <c r="K78" s="51" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="54">
       <c r="B79" s="31"/>
       <c r="C79" s="38"/>
       <c r="D79" s="30" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="33" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H79" s="41" t="b">
         <v>0</v>
@@ -4951,43 +4899,47 @@
       <c r="I79" s="35"/>
       <c r="J79" s="50"/>
       <c r="K79" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" ht="54">
-      <c r="B80" s="54"/>
-      <c r="C80" s="38"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B80" s="31">
+        <v>20</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="D80" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="32"/>
       <c r="F80" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H80" s="41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="35"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="51" t="s">
-        <v>190</v>
+      <c r="J80" s="39"/>
+      <c r="K80" s="40" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="54">
       <c r="B81" s="31"/>
       <c r="C81" s="38"/>
       <c r="D81" s="30" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="33" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H81" s="41" t="b">
         <v>0</v>
@@ -4995,47 +4947,43 @@
       <c r="I81" s="35"/>
       <c r="J81" s="50"/>
       <c r="K81" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="54">
+      <c r="B82" s="54"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="33" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B82" s="31">
-        <v>21</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33" t="s">
-        <v>193</v>
-      </c>
       <c r="G82" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H82" s="41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="35"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="40" t="s">
-        <v>196</v>
+      <c r="J82" s="50"/>
+      <c r="K82" s="51" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="54">
       <c r="B83" s="31"/>
       <c r="C83" s="38"/>
       <c r="D83" s="30" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="33" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H83" s="41" t="b">
         <v>0</v>
@@ -5043,143 +4991,147 @@
       <c r="I83" s="35"/>
       <c r="J83" s="50"/>
       <c r="K83" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="54">
-      <c r="B84" s="54"/>
-      <c r="C84" s="38"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B84" s="31">
+        <v>21</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="D84" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H84" s="41" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="I84" s="35"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="51" t="s">
-        <v>197</v>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="54">
       <c r="B85" s="31"/>
       <c r="C85" s="38"/>
       <c r="D85" s="30" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="33" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H85" s="41" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="I85" s="35"/>
       <c r="J85" s="50"/>
       <c r="K85" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B86" s="31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="54">
+      <c r="B86" s="54"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I86" s="35"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B87" s="31">
         <v>22</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="C87" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>2</v>
-      </c>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H86" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="35"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="54">
-      <c r="B87" s="31"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="33" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="41" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="I87" s="35"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="54">
-      <c r="B88" s="54"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="56.25">
+      <c r="B88" s="31"/>
       <c r="C88" s="38"/>
       <c r="D88" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="E88" s="32"/>
       <c r="F88" s="33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H88" s="41" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I88" s="35"/>
       <c r="J88" s="50"/>
       <c r="K88" s="51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="54">
-      <c r="B89" s="31"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="56.25">
+      <c r="B89" s="54"/>
       <c r="C89" s="38"/>
       <c r="D89" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="E89" s="31"/>
       <c r="F89" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H89" s="41" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I89" s="35"/>
       <c r="J89" s="50"/>
       <c r="K89" s="51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="54.75" thickBot="1">
@@ -5187,28 +5139,28 @@
         <v>23</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="33" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="41" t="s">
-        <v>213</v>
+        <v>25</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="I90" s="35"/>
       <c r="J90" s="39"/>
       <c r="K90" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="54">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="54.75" thickBot="1">
       <c r="B91" s="31"/>
       <c r="C91" s="38"/>
       <c r="D91" s="30" t="s">
@@ -5216,341 +5168,341 @@
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="33" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="41" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I91" s="35"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="54">
-      <c r="B92" s="54"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B92" s="31"/>
       <c r="C92" s="38"/>
       <c r="D92" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="E92" s="32"/>
       <c r="F92" s="33" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="41" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="H92" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I92" s="35"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51" t="s">
-        <v>216</v>
+      <c r="J92" s="39"/>
+      <c r="K92" s="40" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B93" s="31">
+      <c r="B93" s="71">
         <v>24</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D93" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="33" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>217</v>
+        <v>25</v>
+      </c>
+      <c r="H93" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="I93" s="35"/>
       <c r="J93" s="39"/>
       <c r="K93" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="56.25">
-      <c r="B94" s="31"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B94" s="71"/>
       <c r="C94" s="38"/>
       <c r="D94" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="33" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" s="41" t="s">
-        <v>184</v>
+        <v>25</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I94" s="35"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="56.25">
-      <c r="B95" s="54"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B95" s="71"/>
       <c r="C95" s="38"/>
       <c r="D95" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="E95" s="32"/>
       <c r="F95" s="33" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>184</v>
+        <v>25</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I95" s="35"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B96" s="31">
+      <c r="J95" s="39"/>
+      <c r="K95" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="72.75" thickBot="1">
+      <c r="B96" s="71">
         <v>25</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" s="34" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="H96" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="I96" s="35"/>
       <c r="J96" s="39"/>
       <c r="K96" s="40" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B97" s="31"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="38"/>
       <c r="D97" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="33" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" s="34" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="H97" s="34" t="b">
+        <v>0</v>
       </c>
       <c r="I97" s="35"/>
       <c r="J97" s="39"/>
       <c r="K97" s="40" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B98" s="31"/>
+      <c r="B98" s="71"/>
       <c r="C98" s="38"/>
       <c r="D98" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="33" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="34" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="H98" s="34" t="b">
+        <v>0</v>
       </c>
       <c r="I98" s="35"/>
       <c r="J98" s="39"/>
       <c r="K98" s="40" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B99" s="71">
+      <c r="B99" s="31">
         <v>26</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="33" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G99" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" s="34" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="H99" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="I99" s="35"/>
       <c r="J99" s="39"/>
       <c r="K99" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B100" s="71"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="57" thickBot="1">
+      <c r="B100" s="31"/>
       <c r="C100" s="38"/>
       <c r="D100" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="33" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="34" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I100" s="35"/>
       <c r="J100" s="39"/>
       <c r="K100" s="40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B101" s="71"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="57" thickBot="1">
+      <c r="B101" s="31"/>
       <c r="C101" s="38"/>
       <c r="D101" s="30" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H101" s="34" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I101" s="35"/>
       <c r="J101" s="39"/>
       <c r="K101" s="40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" ht="72.75" thickBot="1">
-      <c r="B102" s="71">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="90.75" thickBot="1">
+      <c r="B102" s="31">
         <v>27</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H102" s="34" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="I102" s="35"/>
       <c r="J102" s="39"/>
       <c r="K102" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B103" s="71"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="90.75" thickBot="1">
+      <c r="B103" s="31"/>
       <c r="C103" s="38"/>
       <c r="D103" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" s="34" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="H103" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I103" s="35"/>
       <c r="J103" s="39"/>
       <c r="K103" s="40" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B104" s="71"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="38"/>
       <c r="D104" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="33" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H104" s="34" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I104" s="35"/>
       <c r="J104" s="39"/>
       <c r="K104" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" ht="54.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="72.75" thickBot="1">
       <c r="B105" s="31">
         <v>28</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="33" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G105" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H105" s="41" t="s">
-        <v>225</v>
+        <v>76</v>
+      </c>
+      <c r="H105" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="I105" s="35"/>
       <c r="J105" s="39"/>
@@ -5558,7 +5510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="57" thickBot="1">
+    <row r="106" spans="2:11" ht="54.75" thickBot="1">
       <c r="B106" s="31"/>
       <c r="C106" s="38"/>
       <c r="D106" s="30" t="s">
@@ -5566,58 +5518,58 @@
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="33" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H106" s="34" t="b">
+        <v>0</v>
       </c>
       <c r="I106" s="35"/>
       <c r="J106" s="39"/>
       <c r="K106" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" ht="57" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="54.75" thickBot="1">
       <c r="B107" s="31"/>
       <c r="C107" s="38"/>
       <c r="D107" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="33" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" s="41" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="H107" s="34" t="b">
+        <v>0</v>
       </c>
       <c r="I107" s="35"/>
       <c r="J107" s="39"/>
       <c r="K107" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" ht="90.75" thickBot="1">
-      <c r="B108" s="31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="54.75" thickBot="1">
+      <c r="B108" s="71">
         <v>29</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>70</v>
@@ -5625,80 +5577,80 @@
       <c r="I108" s="35"/>
       <c r="J108" s="39"/>
       <c r="K108" s="40" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="2:11" ht="90.75" thickBot="1">
-      <c r="B109" s="31"/>
+      <c r="B109" s="71"/>
       <c r="C109" s="38"/>
       <c r="D109" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="34" t="s">
-        <v>35</v>
-      </c>
       <c r="H109" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I109" s="35"/>
       <c r="J109" s="39"/>
       <c r="K109" s="40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B110" s="31"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="38"/>
       <c r="D110" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I110" s="35"/>
       <c r="J110" s="39"/>
       <c r="K110" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" ht="72.75" thickBot="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="54.75" thickBot="1">
       <c r="B111" s="31">
         <v>30</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H111" s="34" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="H111" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="I111" s="35"/>
       <c r="J111" s="39"/>
       <c r="K111" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" ht="54.75" thickBot="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="57" thickBot="1">
       <c r="B112" s="31"/>
       <c r="C112" s="38"/>
       <c r="D112" s="30" t="s">
@@ -5706,61 +5658,61 @@
       </c>
       <c r="E112" s="32"/>
       <c r="F112" s="33" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H112" s="34" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H112" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I112" s="35"/>
       <c r="J112" s="39"/>
       <c r="K112" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="54.75" thickBot="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="57" thickBot="1">
       <c r="B113" s="31"/>
       <c r="C113" s="38"/>
       <c r="D113" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="33" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H113" s="34" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H113" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="I113" s="35"/>
       <c r="J113" s="39"/>
       <c r="K113" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B114" s="71">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" ht="162.75" thickBot="1">
+      <c r="B114" s="31">
         <v>31</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H114" s="34" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I114" s="35"/>
       <c r="J114" s="39"/>
@@ -5768,187 +5720,119 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:11" ht="90.75" thickBot="1">
-      <c r="B115" s="71"/>
+    <row r="115" spans="2:11" ht="162.75" thickBot="1">
+      <c r="B115" s="31"/>
       <c r="C115" s="38"/>
       <c r="D115" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E115" s="32"/>
       <c r="F115" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" s="34" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="H115" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="I115" s="35"/>
       <c r="J115" s="39"/>
       <c r="K115" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B116" s="71"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" ht="144.75" thickBot="1">
+      <c r="B116" s="31"/>
       <c r="C116" s="38"/>
       <c r="D116" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G116" s="34" t="s">
-        <v>35</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G116" s="34"/>
       <c r="H116" s="34" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I116" s="35"/>
       <c r="J116" s="39"/>
       <c r="K116" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" ht="54.75" thickBot="1">
-      <c r="B117" s="31">
-        <v>32</v>
-      </c>
-      <c r="C117" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" s="32"/>
-      <c r="F117" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="I117" s="35"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" ht="57" thickBot="1">
-      <c r="B118" s="31"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="32"/>
-      <c r="F118" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="I118" s="35"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" ht="57" thickBot="1">
-      <c r="B119" s="31"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G119" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H119" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="I119" s="35"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" ht="162.75" thickBot="1">
-      <c r="B120" s="31">
-        <v>33</v>
-      </c>
-      <c r="C120" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="32"/>
-      <c r="F120" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G120" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H120" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I120" s="35"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" ht="162.75" thickBot="1">
-      <c r="B121" s="31"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="32"/>
-      <c r="F121" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H121" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I121" s="35"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" ht="144.75" thickBot="1">
-      <c r="B122" s="31"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I122" s="35"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="40" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" ht="18">
+      <c r="B117" s="42"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="45"/>
+    </row>
+    <row r="118" spans="2:11" ht="18.75">
+      <c r="B118" s="42"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="45"/>
+    </row>
+    <row r="119" spans="2:11" ht="18">
+      <c r="B119" s="42"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="45"/>
+    </row>
+    <row r="120" spans="2:11" ht="18.75">
+      <c r="B120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="45"/>
+    </row>
+    <row r="121" spans="2:11" ht="18">
+      <c r="B121" s="42"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="45"/>
+    </row>
+    <row r="122" spans="2:11" ht="18.75">
+      <c r="B122" s="42"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="45"/>
     </row>
     <row r="123" spans="2:11" ht="18">
       <c r="B123" s="42"/>
@@ -5986,14 +5870,14 @@
       <c r="J125" s="48"/>
       <c r="K125" s="45"/>
     </row>
-    <row r="126" spans="2:11" ht="18.75">
+    <row r="126" spans="2:11" ht="18">
       <c r="B126" s="42"/>
       <c r="C126" s="43"/>
       <c r="D126" s="44"/>
       <c r="E126" s="45"/>
       <c r="F126" s="46"/>
       <c r="G126" s="46"/>
-      <c r="H126" s="49"/>
+      <c r="H126" s="46"/>
       <c r="I126" s="47"/>
       <c r="J126" s="48"/>
       <c r="K126" s="45"/>
@@ -6010,26 +5894,26 @@
       <c r="J127" s="48"/>
       <c r="K127" s="45"/>
     </row>
-    <row r="128" spans="2:11" ht="18.75">
+    <row r="128" spans="2:11" ht="18">
       <c r="B128" s="42"/>
       <c r="C128" s="43"/>
       <c r="D128" s="44"/>
       <c r="E128" s="45"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="49"/>
+      <c r="H128" s="46"/>
       <c r="I128" s="47"/>
       <c r="J128" s="48"/>
       <c r="K128" s="45"/>
     </row>
-    <row r="129" spans="2:11" ht="18">
+    <row r="129" spans="2:11" ht="18.75">
       <c r="B129" s="42"/>
       <c r="C129" s="43"/>
       <c r="D129" s="44"/>
       <c r="E129" s="45"/>
       <c r="F129" s="46"/>
       <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
+      <c r="H129" s="49"/>
       <c r="I129" s="47"/>
       <c r="J129" s="48"/>
       <c r="K129" s="45"/>
@@ -6046,83 +5930,11 @@
       <c r="J130" s="48"/>
       <c r="K130" s="45"/>
     </row>
-    <row r="131" spans="2:11" ht="18">
-      <c r="B131" s="42"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="48"/>
-      <c r="K131" s="45"/>
-    </row>
-    <row r="132" spans="2:11" ht="18">
-      <c r="B132" s="42"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="48"/>
-      <c r="K132" s="45"/>
-    </row>
-    <row r="133" spans="2:11" ht="18">
-      <c r="B133" s="42"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="45"/>
-    </row>
-    <row r="134" spans="2:11" ht="18">
-      <c r="B134" s="42"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="45"/>
-    </row>
-    <row r="135" spans="2:11" ht="18.75">
-      <c r="B135" s="42"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="48"/>
-      <c r="K135" s="45"/>
-    </row>
-    <row r="136" spans="2:11" ht="18.75">
-      <c r="B136" s="42"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="48"/>
-      <c r="K136" s="45"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I130">
       <formula1>"-,Pass,Fail,Pass With Issues,TBD"</formula1>
     </dataValidation>
   </dataValidations>
